--- a/pruebas_app.xlsx
+++ b/pruebas_app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imc-4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEB7FA3-5160-40D7-9033-84BD3C2F1F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD48AB6-7452-4587-BEE3-A56D82963827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B885D8CE-9DDD-4136-A3D5-9352FD73362A}"/>
   </bookViews>
@@ -25,31 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Pelicula 1</t>
-  </si>
-  <si>
-    <t>Pelicula 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Comedia</t>
   </si>
   <si>
-    <t>Ficción</t>
-  </si>
-  <si>
-    <t>ima</t>
+    <t>El show de Truman</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Padre no hay más que uno</t>
+  </si>
+  <si>
+    <t>https://github.com/israel-android/excel_pruebas/blob/main/padre_uno.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/israel-android/excel_pruebas/blob/main/show_truman.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,34 +408,43 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{26FDC0E1-A5C5-4718-9FF8-EBBD1C35EF7D}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{E7B98865-8055-4FF5-A25A-090F9354BB82}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>